--- a/סקר חברתי.xlsx
+++ b/סקר חברתי.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Shared drives\Content\02 Communicate\Charts Makeover Social Media\סקר חברתי\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BBF79C8A-66C0-48FD-AD47-12E3E4649118}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0FFFC46-C030-4CC3-8837-F3FFCE78C478}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{9029A614-1993-4367-849A-2392EF8E4722}"/>
   </bookViews>
@@ -102,9 +102,6 @@
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="53">
-  <si>
-    <t>שם  הרשות</t>
-  </si>
   <si>
     <t>שנה</t>
   </si>
@@ -261,6 +258,9 @@
   </si>
   <si>
     <t>הרצלייה</t>
+  </si>
+  <si>
+    <t>רשות מקומית</t>
   </si>
 </sst>
 </file>
@@ -1250,7 +1250,7 @@
     <sortCondition descending="1" ref="C2:C107"/>
   </sortState>
   <tableColumns count="31">
-    <tableColumn id="1" xr3:uid="{3C181DDE-18D1-4021-939E-5842AD84999D}" name="שם  הרשות" dataDxfId="36"/>
+    <tableColumn id="1" xr3:uid="{3C181DDE-18D1-4021-939E-5842AD84999D}" name="רשות מקומית" dataDxfId="36"/>
     <tableColumn id="2" xr3:uid="{09156158-89A5-49AE-8227-2450E5DF6B8F}" name="שנה" dataDxfId="35"/>
     <tableColumn id="3" xr3:uid="{4B7B8A96-A3B1-42EE-B762-080F927428DA}" name="סמל הרשות" dataDxfId="34"/>
     <tableColumn id="4" xr3:uid="{66BE9C11-1AE6-453A-BAB3-D015103D0B5C}" name="בני 20 ומעלה - סך הכל באלפים" dataDxfId="33"/>
@@ -1608,7 +1608,7 @@
   <dimension ref="A1:AE107"/>
   <sheetViews>
     <sheetView showGridLines="0" rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.19921875" defaultRowHeight="11.4" x14ac:dyDescent="0.25"/>
@@ -1621,102 +1621,102 @@
   <sheetData>
     <row r="1" spans="1:31" s="4" customFormat="1" ht="87.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="C1" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="D1" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="E1" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="F1" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="22" t="s">
+      <c r="G1" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="23" t="s">
+      <c r="H1" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="23" t="s">
+      <c r="I1" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="23" t="s">
+      <c r="J1" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="23" t="s">
+      <c r="K1" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="23" t="s">
+      <c r="L1" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="23" t="s">
+      <c r="M1" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="23" t="s">
+      <c r="N1" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="23" t="s">
+      <c r="O1" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="23" t="s">
+      <c r="P1" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="23" t="s">
+      <c r="Q1" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="23" t="s">
+      <c r="R1" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="23" t="s">
+      <c r="S1" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="23" t="s">
+      <c r="T1" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="23" t="s">
+      <c r="U1" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="23" t="s">
+      <c r="V1" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="23" t="s">
+      <c r="W1" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="23" t="s">
+      <c r="X1" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="23" t="s">
+      <c r="Y1" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="23" t="s">
+      <c r="Z1" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="23" t="s">
+      <c r="AA1" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="23" t="s">
+      <c r="AB1" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="23" t="s">
+      <c r="AC1" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="23" t="s">
+      <c r="AD1" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="23" t="s">
+      <c r="AE1" s="3" t="s">
         <v>29</v>
-      </c>
-      <c r="AE1" s="3" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B2" s="6">
         <v>2017</v>
@@ -1799,7 +1799,7 @@
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B3" s="2">
         <v>2018</v>
@@ -1882,7 +1882,7 @@
     </row>
     <row r="4" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B4" s="2">
         <v>2019</v>
@@ -1975,7 +1975,7 @@
     </row>
     <row r="5" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B5" s="2">
         <v>2020</v>
@@ -2068,7 +2068,7 @@
     </row>
     <row r="6" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B6" s="1">
         <v>2021</v>
@@ -2164,7 +2164,7 @@
     </row>
     <row r="7" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B7" s="1">
         <v>2022</v>
@@ -2260,7 +2260,7 @@
     </row>
     <row r="8" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B8" s="6">
         <v>2017</v>
@@ -2343,7 +2343,7 @@
     </row>
     <row r="9" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B9" s="2">
         <v>2018</v>
@@ -2426,7 +2426,7 @@
     </row>
     <row r="10" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B10" s="2">
         <v>2019</v>
@@ -2509,7 +2509,7 @@
     </row>
     <row r="11" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B11" s="2">
         <v>2020</v>
@@ -2602,7 +2602,7 @@
     </row>
     <row r="12" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B12" s="2">
         <v>2021</v>
@@ -2698,7 +2698,7 @@
     </row>
     <row r="13" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B13" s="2">
         <v>2022</v>
@@ -2794,7 +2794,7 @@
     </row>
     <row r="14" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B14" s="6">
         <v>2017</v>
@@ -2877,7 +2877,7 @@
     </row>
     <row r="15" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B15" s="2">
         <v>2018</v>
@@ -2960,7 +2960,7 @@
     </row>
     <row r="16" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B16" s="2">
         <v>2019</v>
@@ -3043,7 +3043,7 @@
     </row>
     <row r="17" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B17" s="2">
         <v>2020</v>
@@ -3136,7 +3136,7 @@
     </row>
     <row r="18" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B18" s="1">
         <v>2021</v>
@@ -3232,7 +3232,7 @@
     </row>
     <row r="19" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B19" s="1">
         <v>2022</v>
@@ -3280,7 +3280,7 @@
         <v>87.2</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="R19" s="7">
         <v>-32.700000000000003</v>
@@ -3328,7 +3328,7 @@
     </row>
     <row r="20" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B20" s="6">
         <v>2017</v>
@@ -3411,7 +3411,7 @@
     </row>
     <row r="21" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B21" s="1">
         <v>2018</v>
@@ -3494,7 +3494,7 @@
     </row>
     <row r="22" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B22" s="1">
         <v>2019</v>
@@ -3587,7 +3587,7 @@
     </row>
     <row r="23" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B23" s="1">
         <v>2020</v>
@@ -3680,7 +3680,7 @@
     </row>
     <row r="24" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B24" s="1">
         <v>2021</v>
@@ -3776,7 +3776,7 @@
     </row>
     <row r="25" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B25" s="1">
         <v>2022</v>
@@ -3872,7 +3872,7 @@
     </row>
     <row r="26" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B26" s="6">
         <v>2017</v>
@@ -3955,7 +3955,7 @@
     </row>
     <row r="27" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B27" s="2">
         <v>2018</v>
@@ -4038,7 +4038,7 @@
     </row>
     <row r="28" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B28" s="2">
         <v>2019</v>
@@ -4131,7 +4131,7 @@
     </row>
     <row r="29" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B29" s="2">
         <v>2020</v>
@@ -4224,7 +4224,7 @@
     </row>
     <row r="30" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B30" s="2">
         <v>2021</v>
@@ -4320,7 +4320,7 @@
     </row>
     <row r="31" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B31" s="2">
         <v>2022</v>
@@ -4416,7 +4416,7 @@
     </row>
     <row r="32" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B32" s="6">
         <v>2017</v>
@@ -4499,7 +4499,7 @@
     </row>
     <row r="33" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B33" s="1">
         <v>2018</v>
@@ -4582,7 +4582,7 @@
     </row>
     <row r="34" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B34" s="1">
         <v>2019</v>
@@ -4675,7 +4675,7 @@
     </row>
     <row r="35" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B35" s="1">
         <v>2020</v>
@@ -4768,7 +4768,7 @@
     </row>
     <row r="36" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B36" s="2">
         <v>2021</v>
@@ -4864,7 +4864,7 @@
     </row>
     <row r="37" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B37" s="2">
         <v>2022</v>
@@ -4960,7 +4960,7 @@
     </row>
     <row r="38" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B38" s="6">
         <v>2017</v>
@@ -5043,7 +5043,7 @@
     </row>
     <row r="39" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B39" s="1">
         <v>2018</v>
@@ -5126,7 +5126,7 @@
     </row>
     <row r="40" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B40" s="1">
         <v>2019</v>
@@ -5209,7 +5209,7 @@
     </row>
     <row r="41" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B41" s="1">
         <v>2020</v>
@@ -5302,7 +5302,7 @@
     </row>
     <row r="42" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B42" s="2">
         <v>2021</v>
@@ -5398,7 +5398,7 @@
     </row>
     <row r="43" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B43" s="2">
         <v>2022</v>
@@ -5494,7 +5494,7 @@
     </row>
     <row r="44" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B44" s="6">
         <v>2017</v>
@@ -5577,7 +5577,7 @@
     </row>
     <row r="45" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B45" s="1">
         <v>2018</v>
@@ -5660,7 +5660,7 @@
     </row>
     <row r="46" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B46" s="1">
         <v>2019</v>
@@ -5743,7 +5743,7 @@
     </row>
     <row r="47" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B47" s="1">
         <v>2020</v>
@@ -5773,7 +5773,7 @@
         <v>88.46</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L47" s="7">
         <v>83.9</v>
@@ -5791,7 +5791,7 @@
         <v>86.4</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="R47" s="7">
         <v>30.1</v>
@@ -5836,7 +5836,7 @@
     </row>
     <row r="48" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B48" s="2">
         <v>2021</v>
@@ -5932,7 +5932,7 @@
     </row>
     <row r="49" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A49" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B49" s="2">
         <v>2022</v>
@@ -5968,7 +5968,7 @@
         <v>80</v>
       </c>
       <c r="M49" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="N49" s="8">
         <v>73.2</v>
@@ -5980,7 +5980,7 @@
         <v>88.8</v>
       </c>
       <c r="Q49" s="11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="R49" s="7">
         <v>-29.7</v>
@@ -6028,7 +6028,7 @@
     </row>
     <row r="50" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A50" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B50" s="6">
         <v>2017</v>
@@ -6111,7 +6111,7 @@
     </row>
     <row r="51" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B51" s="2">
         <v>2018</v>
@@ -6194,7 +6194,7 @@
     </row>
     <row r="52" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A52" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B52" s="2">
         <v>2019</v>
@@ -6279,7 +6279,7 @@
     </row>
     <row r="53" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A53" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B53" s="1">
         <v>2020</v>
@@ -6372,7 +6372,7 @@
     </row>
     <row r="54" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A54" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B54" s="1">
         <v>2021</v>
@@ -6468,7 +6468,7 @@
     </row>
     <row r="55" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A55" s="12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B55" s="13">
         <v>2022</v>
@@ -6564,7 +6564,7 @@
     </row>
     <row r="56" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A56" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B56" s="2">
         <v>2021</v>
@@ -6660,7 +6660,7 @@
     </row>
     <row r="57" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A57" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B57" s="2">
         <v>2022</v>
@@ -6756,7 +6756,7 @@
     </row>
     <row r="58" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A58" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B58" s="1">
         <v>2021</v>
@@ -6852,7 +6852,7 @@
     </row>
     <row r="59" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A59" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B59" s="1">
         <v>2022</v>
@@ -6948,7 +6948,7 @@
     </row>
     <row r="60" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A60" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B60" s="6">
         <v>2017</v>
@@ -7031,7 +7031,7 @@
     </row>
     <row r="61" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A61" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B61" s="1">
         <v>2018</v>
@@ -7114,7 +7114,7 @@
     </row>
     <row r="62" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A62" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B62" s="1">
         <v>2019</v>
@@ -7197,7 +7197,7 @@
     </row>
     <row r="63" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A63" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B63" s="1">
         <v>2020</v>
@@ -7290,7 +7290,7 @@
     </row>
     <row r="64" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A64" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B64" s="1">
         <v>2021</v>
@@ -7386,7 +7386,7 @@
     </row>
     <row r="65" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A65" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B65" s="1">
         <v>2022</v>
@@ -7482,7 +7482,7 @@
     </row>
     <row r="66" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A66" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B66" s="6">
         <v>2017</v>
@@ -7565,7 +7565,7 @@
     </row>
     <row r="67" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A67" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B67" s="1">
         <v>2018</v>
@@ -7648,7 +7648,7 @@
     </row>
     <row r="68" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A68" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B68" s="1">
         <v>2019</v>
@@ -7731,7 +7731,7 @@
     </row>
     <row r="69" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A69" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B69" s="2">
         <v>2020</v>
@@ -7824,7 +7824,7 @@
     </row>
     <row r="70" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A70" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B70" s="2">
         <v>2021</v>
@@ -7896,7 +7896,7 @@
         <v>33.4</v>
       </c>
       <c r="Y70" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Z70" s="11">
         <v>67.599999999999994</v>
@@ -7920,7 +7920,7 @@
     </row>
     <row r="71" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A71" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B71" s="2">
         <v>2022</v>
@@ -8016,7 +8016,7 @@
     </row>
     <row r="72" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A72" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B72" s="6">
         <v>2017</v>
@@ -8099,7 +8099,7 @@
     </row>
     <row r="73" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A73" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B73" s="1">
         <v>2018</v>
@@ -8182,7 +8182,7 @@
     </row>
     <row r="74" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A74" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B74" s="1">
         <v>2019</v>
@@ -8275,7 +8275,7 @@
     </row>
     <row r="75" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A75" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B75" s="1">
         <v>2020</v>
@@ -8368,7 +8368,7 @@
     </row>
     <row r="76" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A76" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B76" s="1">
         <v>2021</v>
@@ -8464,7 +8464,7 @@
     </row>
     <row r="77" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A77" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B77" s="1">
         <v>2022</v>
@@ -8560,7 +8560,7 @@
     </row>
     <row r="78" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A78" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B78" s="6">
         <v>2017</v>
@@ -8643,7 +8643,7 @@
     </row>
     <row r="79" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A79" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B79" s="2">
         <v>2018</v>
@@ -8726,7 +8726,7 @@
     </row>
     <row r="80" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A80" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B80" s="2">
         <v>2019</v>
@@ -8819,7 +8819,7 @@
     </row>
     <row r="81" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A81" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B81" s="2">
         <v>2020</v>
@@ -8912,7 +8912,7 @@
     </row>
     <row r="82" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A82" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B82" s="2">
         <v>2021</v>
@@ -9008,7 +9008,7 @@
     </row>
     <row r="83" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A83" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B83" s="2">
         <v>2022</v>
@@ -9104,7 +9104,7 @@
     </row>
     <row r="84" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B84" s="6">
         <v>2017</v>
@@ -9187,7 +9187,7 @@
     </row>
     <row r="85" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B85" s="2">
         <v>2018</v>
@@ -9270,7 +9270,7 @@
     </row>
     <row r="86" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A86" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B86" s="2">
         <v>2019</v>
@@ -9363,7 +9363,7 @@
     </row>
     <row r="87" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A87" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B87" s="2">
         <v>2020</v>
@@ -9456,7 +9456,7 @@
     </row>
     <row r="88" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A88" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B88" s="1">
         <v>2020</v>
@@ -9549,7 +9549,7 @@
     </row>
     <row r="89" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A89" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B89" s="2">
         <v>2020</v>
@@ -9642,7 +9642,7 @@
     </row>
     <row r="90" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A90" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B90" s="2">
         <v>2021</v>
@@ -9738,7 +9738,7 @@
     </row>
     <row r="91" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A91" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B91" s="1">
         <v>2021</v>
@@ -9834,7 +9834,7 @@
     </row>
     <row r="92" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A92" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B92" s="2">
         <v>2021</v>
@@ -9930,7 +9930,7 @@
     </row>
     <row r="93" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A93" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B93" s="1">
         <v>2022</v>
@@ -10026,7 +10026,7 @@
     </row>
     <row r="94" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A94" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B94" s="2">
         <v>2022</v>
@@ -10122,7 +10122,7 @@
     </row>
     <row r="95" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A95" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B95" s="2">
         <v>2022</v>
@@ -10218,7 +10218,7 @@
     </row>
     <row r="96" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A96" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B96" s="6">
         <v>2017</v>
@@ -10301,7 +10301,7 @@
     </row>
     <row r="97" spans="1:31" ht="10.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B97" s="2">
         <v>2018</v>
@@ -10384,7 +10384,7 @@
     </row>
     <row r="98" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A98" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B98" s="2">
         <v>2019</v>
@@ -10467,7 +10467,7 @@
     </row>
     <row r="99" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B99" s="2">
         <v>2020</v>
@@ -10560,7 +10560,7 @@
     </row>
     <row r="100" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A100" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B100" s="1">
         <v>2021</v>
@@ -10656,7 +10656,7 @@
     </row>
     <row r="101" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A101" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B101" s="1">
         <v>2022</v>
@@ -10752,7 +10752,7 @@
     </row>
     <row r="102" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A102" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B102" s="6">
         <v>2017</v>
@@ -10835,7 +10835,7 @@
     </row>
     <row r="103" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A103" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B103" s="1">
         <v>2018</v>
@@ -10918,7 +10918,7 @@
     </row>
     <row r="104" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A104" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B104" s="1">
         <v>2019</v>
@@ -11011,7 +11011,7 @@
     </row>
     <row r="105" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A105" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B105" s="1">
         <v>2020</v>
@@ -11104,7 +11104,7 @@
     </row>
     <row r="106" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A106" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B106" s="1">
         <v>2021</v>
@@ -11200,7 +11200,7 @@
     </row>
     <row r="107" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A107" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B107" s="1">
         <v>2022</v>

--- a/סקר חברתי.xlsx
+++ b/סקר חברתי.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Shared drives\Content\02 Communicate\Charts Makeover Social Media\סקר חברתי\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0FFFC46-C030-4CC3-8837-F3FFCE78C478}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E3CE0F9-4D2D-423E-B82B-6681F85243F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{9029A614-1993-4367-849A-2392EF8E4722}"/>
   </bookViews>
@@ -102,9 +102,6 @@
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="53">
-  <si>
-    <t>שנה</t>
-  </si>
   <si>
     <t>סמל הרשות</t>
   </si>
@@ -262,6 +259,9 @@
   <si>
     <t>רשות מקומית</t>
   </si>
+  <si>
+    <t>שנה2</t>
+  </si>
 </sst>
 </file>
 
@@ -340,7 +340,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -377,9 +377,6 @@
     <xf numFmtId="168" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="165" fontId="2" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1251,7 +1248,7 @@
   </sortState>
   <tableColumns count="31">
     <tableColumn id="1" xr3:uid="{3C181DDE-18D1-4021-939E-5842AD84999D}" name="רשות מקומית" dataDxfId="36"/>
-    <tableColumn id="2" xr3:uid="{09156158-89A5-49AE-8227-2450E5DF6B8F}" name="שנה" dataDxfId="35"/>
+    <tableColumn id="2" xr3:uid="{09156158-89A5-49AE-8227-2450E5DF6B8F}" name="שנה2" dataDxfId="35"/>
     <tableColumn id="3" xr3:uid="{4B7B8A96-A3B1-42EE-B762-080F927428DA}" name="סמל הרשות" dataDxfId="34"/>
     <tableColumn id="4" xr3:uid="{66BE9C11-1AE6-453A-BAB3-D015103D0B5C}" name="בני 20 ומעלה - סך הכל באלפים" dataDxfId="33"/>
     <tableColumn id="5" xr3:uid="{0F94795A-3638-4FE9-BC07-CC632EACBE61}" name="מרוצים מהדירה" dataDxfId="32"/>
@@ -1607,9 +1604,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59308D8F-0010-433A-B46F-F417251B5669}">
   <dimension ref="A1:AE107"/>
   <sheetViews>
-    <sheetView showGridLines="0" rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView showGridLines="0" rightToLeft="1" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.19921875" defaultRowHeight="11.4" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1621,102 +1616,102 @@
   <sheetData>
     <row r="1" spans="1:31" s="4" customFormat="1" ht="87.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="C1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="D1" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="E1" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="F1" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="22" t="s">
+      <c r="G1" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="23" t="s">
+      <c r="H1" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="23" t="s">
+      <c r="I1" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="23" t="s">
+      <c r="J1" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="23" t="s">
+      <c r="K1" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="23" t="s">
+      <c r="L1" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="23" t="s">
+      <c r="M1" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="23" t="s">
+      <c r="N1" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="23" t="s">
+      <c r="O1" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="23" t="s">
+      <c r="P1" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="23" t="s">
+      <c r="Q1" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="23" t="s">
+      <c r="R1" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="23" t="s">
+      <c r="S1" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="S1" s="23" t="s">
+      <c r="T1" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="T1" s="23" t="s">
+      <c r="U1" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="U1" s="23" t="s">
+      <c r="V1" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="V1" s="23" t="s">
+      <c r="W1" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="W1" s="23" t="s">
+      <c r="X1" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="X1" s="23" t="s">
+      <c r="Y1" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="Y1" s="23" t="s">
+      <c r="Z1" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="Z1" s="23" t="s">
+      <c r="AA1" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="AA1" s="23" t="s">
+      <c r="AB1" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="AB1" s="23" t="s">
+      <c r="AC1" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="AC1" s="23" t="s">
+      <c r="AD1" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="AD1" s="23" t="s">
+      <c r="AE1" s="3" t="s">
         <v>28</v>
-      </c>
-      <c r="AE1" s="3" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B2" s="6">
         <v>2017</v>
@@ -1799,7 +1794,7 @@
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B3" s="2">
         <v>2018</v>
@@ -1882,7 +1877,7 @@
     </row>
     <row r="4" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B4" s="2">
         <v>2019</v>
@@ -1975,7 +1970,7 @@
     </row>
     <row r="5" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B5" s="2">
         <v>2020</v>
@@ -2068,7 +2063,7 @@
     </row>
     <row r="6" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B6" s="1">
         <v>2021</v>
@@ -2164,7 +2159,7 @@
     </row>
     <row r="7" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B7" s="1">
         <v>2022</v>
@@ -2260,7 +2255,7 @@
     </row>
     <row r="8" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B8" s="6">
         <v>2017</v>
@@ -2343,7 +2338,7 @@
     </row>
     <row r="9" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B9" s="2">
         <v>2018</v>
@@ -2426,7 +2421,7 @@
     </row>
     <row r="10" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B10" s="2">
         <v>2019</v>
@@ -2509,7 +2504,7 @@
     </row>
     <row r="11" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B11" s="2">
         <v>2020</v>
@@ -2602,7 +2597,7 @@
     </row>
     <row r="12" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B12" s="2">
         <v>2021</v>
@@ -2698,7 +2693,7 @@
     </row>
     <row r="13" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B13" s="2">
         <v>2022</v>
@@ -2794,7 +2789,7 @@
     </row>
     <row r="14" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B14" s="6">
         <v>2017</v>
@@ -2877,7 +2872,7 @@
     </row>
     <row r="15" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B15" s="2">
         <v>2018</v>
@@ -2960,7 +2955,7 @@
     </row>
     <row r="16" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B16" s="2">
         <v>2019</v>
@@ -3043,7 +3038,7 @@
     </row>
     <row r="17" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B17" s="2">
         <v>2020</v>
@@ -3136,7 +3131,7 @@
     </row>
     <row r="18" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B18" s="1">
         <v>2021</v>
@@ -3232,7 +3227,7 @@
     </row>
     <row r="19" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B19" s="1">
         <v>2022</v>
@@ -3280,7 +3275,7 @@
         <v>87.2</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="R19" s="7">
         <v>-32.700000000000003</v>
@@ -3328,7 +3323,7 @@
     </row>
     <row r="20" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B20" s="6">
         <v>2017</v>
@@ -3411,7 +3406,7 @@
     </row>
     <row r="21" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B21" s="1">
         <v>2018</v>
@@ -3494,7 +3489,7 @@
     </row>
     <row r="22" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B22" s="1">
         <v>2019</v>
@@ -3587,7 +3582,7 @@
     </row>
     <row r="23" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B23" s="1">
         <v>2020</v>
@@ -3680,7 +3675,7 @@
     </row>
     <row r="24" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B24" s="1">
         <v>2021</v>
@@ -3776,7 +3771,7 @@
     </row>
     <row r="25" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B25" s="1">
         <v>2022</v>
@@ -3872,7 +3867,7 @@
     </row>
     <row r="26" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B26" s="6">
         <v>2017</v>
@@ -3955,7 +3950,7 @@
     </row>
     <row r="27" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B27" s="2">
         <v>2018</v>
@@ -4038,7 +4033,7 @@
     </row>
     <row r="28" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B28" s="2">
         <v>2019</v>
@@ -4131,7 +4126,7 @@
     </row>
     <row r="29" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B29" s="2">
         <v>2020</v>
@@ -4224,7 +4219,7 @@
     </row>
     <row r="30" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B30" s="2">
         <v>2021</v>
@@ -4320,7 +4315,7 @@
     </row>
     <row r="31" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B31" s="2">
         <v>2022</v>
@@ -4416,7 +4411,7 @@
     </row>
     <row r="32" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B32" s="6">
         <v>2017</v>
@@ -4499,7 +4494,7 @@
     </row>
     <row r="33" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B33" s="1">
         <v>2018</v>
@@ -4582,7 +4577,7 @@
     </row>
     <row r="34" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B34" s="1">
         <v>2019</v>
@@ -4675,7 +4670,7 @@
     </row>
     <row r="35" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B35" s="1">
         <v>2020</v>
@@ -4768,7 +4763,7 @@
     </row>
     <row r="36" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B36" s="2">
         <v>2021</v>
@@ -4864,7 +4859,7 @@
     </row>
     <row r="37" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B37" s="2">
         <v>2022</v>
@@ -4960,7 +4955,7 @@
     </row>
     <row r="38" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B38" s="6">
         <v>2017</v>
@@ -5043,7 +5038,7 @@
     </row>
     <row r="39" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B39" s="1">
         <v>2018</v>
@@ -5126,7 +5121,7 @@
     </row>
     <row r="40" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B40" s="1">
         <v>2019</v>
@@ -5209,7 +5204,7 @@
     </row>
     <row r="41" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B41" s="1">
         <v>2020</v>
@@ -5302,7 +5297,7 @@
     </row>
     <row r="42" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B42" s="2">
         <v>2021</v>
@@ -5398,7 +5393,7 @@
     </row>
     <row r="43" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B43" s="2">
         <v>2022</v>
@@ -5494,7 +5489,7 @@
     </row>
     <row r="44" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B44" s="6">
         <v>2017</v>
@@ -5577,7 +5572,7 @@
     </row>
     <row r="45" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B45" s="1">
         <v>2018</v>
@@ -5660,7 +5655,7 @@
     </row>
     <row r="46" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B46" s="1">
         <v>2019</v>
@@ -5743,7 +5738,7 @@
     </row>
     <row r="47" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B47" s="1">
         <v>2020</v>
@@ -5773,7 +5768,7 @@
         <v>88.46</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L47" s="7">
         <v>83.9</v>
@@ -5791,7 +5786,7 @@
         <v>86.4</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="R47" s="7">
         <v>30.1</v>
@@ -5836,7 +5831,7 @@
     </row>
     <row r="48" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B48" s="2">
         <v>2021</v>
@@ -5932,7 +5927,7 @@
     </row>
     <row r="49" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A49" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B49" s="2">
         <v>2022</v>
@@ -5968,7 +5963,7 @@
         <v>80</v>
       </c>
       <c r="M49" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="N49" s="8">
         <v>73.2</v>
@@ -5980,7 +5975,7 @@
         <v>88.8</v>
       </c>
       <c r="Q49" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="R49" s="7">
         <v>-29.7</v>
@@ -6028,7 +6023,7 @@
     </row>
     <row r="50" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A50" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B50" s="6">
         <v>2017</v>
@@ -6111,7 +6106,7 @@
     </row>
     <row r="51" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B51" s="2">
         <v>2018</v>
@@ -6194,7 +6189,7 @@
     </row>
     <row r="52" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A52" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B52" s="2">
         <v>2019</v>
@@ -6279,7 +6274,7 @@
     </row>
     <row r="53" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A53" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B53" s="1">
         <v>2020</v>
@@ -6372,7 +6367,7 @@
     </row>
     <row r="54" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A54" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B54" s="1">
         <v>2021</v>
@@ -6468,7 +6463,7 @@
     </row>
     <row r="55" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A55" s="12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B55" s="13">
         <v>2022</v>
@@ -6564,7 +6559,7 @@
     </row>
     <row r="56" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A56" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B56" s="2">
         <v>2021</v>
@@ -6660,7 +6655,7 @@
     </row>
     <row r="57" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A57" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B57" s="2">
         <v>2022</v>
@@ -6756,7 +6751,7 @@
     </row>
     <row r="58" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A58" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B58" s="1">
         <v>2021</v>
@@ -6852,7 +6847,7 @@
     </row>
     <row r="59" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A59" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B59" s="1">
         <v>2022</v>
@@ -6948,7 +6943,7 @@
     </row>
     <row r="60" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A60" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B60" s="6">
         <v>2017</v>
@@ -7031,7 +7026,7 @@
     </row>
     <row r="61" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A61" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B61" s="1">
         <v>2018</v>
@@ -7114,7 +7109,7 @@
     </row>
     <row r="62" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A62" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B62" s="1">
         <v>2019</v>
@@ -7197,7 +7192,7 @@
     </row>
     <row r="63" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A63" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B63" s="1">
         <v>2020</v>
@@ -7290,7 +7285,7 @@
     </row>
     <row r="64" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A64" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B64" s="1">
         <v>2021</v>
@@ -7386,7 +7381,7 @@
     </row>
     <row r="65" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A65" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B65" s="1">
         <v>2022</v>
@@ -7482,7 +7477,7 @@
     </row>
     <row r="66" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A66" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B66" s="6">
         <v>2017</v>
@@ -7565,7 +7560,7 @@
     </row>
     <row r="67" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A67" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B67" s="1">
         <v>2018</v>
@@ -7648,7 +7643,7 @@
     </row>
     <row r="68" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A68" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B68" s="1">
         <v>2019</v>
@@ -7731,7 +7726,7 @@
     </row>
     <row r="69" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A69" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B69" s="2">
         <v>2020</v>
@@ -7824,7 +7819,7 @@
     </row>
     <row r="70" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A70" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B70" s="2">
         <v>2021</v>
@@ -7896,7 +7891,7 @@
         <v>33.4</v>
       </c>
       <c r="Y70" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="Z70" s="11">
         <v>67.599999999999994</v>
@@ -7920,7 +7915,7 @@
     </row>
     <row r="71" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A71" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B71" s="2">
         <v>2022</v>
@@ -8016,7 +8011,7 @@
     </row>
     <row r="72" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A72" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B72" s="6">
         <v>2017</v>
@@ -8099,7 +8094,7 @@
     </row>
     <row r="73" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A73" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B73" s="1">
         <v>2018</v>
@@ -8182,7 +8177,7 @@
     </row>
     <row r="74" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A74" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B74" s="1">
         <v>2019</v>
@@ -8275,7 +8270,7 @@
     </row>
     <row r="75" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A75" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B75" s="1">
         <v>2020</v>
@@ -8368,7 +8363,7 @@
     </row>
     <row r="76" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A76" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B76" s="1">
         <v>2021</v>
@@ -8464,7 +8459,7 @@
     </row>
     <row r="77" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A77" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B77" s="1">
         <v>2022</v>
@@ -8560,7 +8555,7 @@
     </row>
     <row r="78" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A78" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B78" s="6">
         <v>2017</v>
@@ -8643,7 +8638,7 @@
     </row>
     <row r="79" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A79" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B79" s="2">
         <v>2018</v>
@@ -8726,7 +8721,7 @@
     </row>
     <row r="80" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A80" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B80" s="2">
         <v>2019</v>
@@ -8819,7 +8814,7 @@
     </row>
     <row r="81" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A81" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B81" s="2">
         <v>2020</v>
@@ -8912,7 +8907,7 @@
     </row>
     <row r="82" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A82" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B82" s="2">
         <v>2021</v>
@@ -9008,7 +9003,7 @@
     </row>
     <row r="83" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A83" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B83" s="2">
         <v>2022</v>
@@ -9104,7 +9099,7 @@
     </row>
     <row r="84" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B84" s="6">
         <v>2017</v>
@@ -9187,7 +9182,7 @@
     </row>
     <row r="85" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B85" s="2">
         <v>2018</v>
@@ -9270,7 +9265,7 @@
     </row>
     <row r="86" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A86" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B86" s="2">
         <v>2019</v>
@@ -9363,7 +9358,7 @@
     </row>
     <row r="87" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A87" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B87" s="2">
         <v>2020</v>
@@ -9456,7 +9451,7 @@
     </row>
     <row r="88" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A88" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B88" s="1">
         <v>2020</v>
@@ -9549,7 +9544,7 @@
     </row>
     <row r="89" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A89" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B89" s="2">
         <v>2020</v>
@@ -9642,7 +9637,7 @@
     </row>
     <row r="90" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A90" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B90" s="2">
         <v>2021</v>
@@ -9738,7 +9733,7 @@
     </row>
     <row r="91" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A91" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B91" s="1">
         <v>2021</v>
@@ -9834,7 +9829,7 @@
     </row>
     <row r="92" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A92" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B92" s="2">
         <v>2021</v>
@@ -9930,7 +9925,7 @@
     </row>
     <row r="93" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A93" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B93" s="1">
         <v>2022</v>
@@ -10026,7 +10021,7 @@
     </row>
     <row r="94" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A94" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B94" s="2">
         <v>2022</v>
@@ -10122,7 +10117,7 @@
     </row>
     <row r="95" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A95" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B95" s="2">
         <v>2022</v>
@@ -10218,7 +10213,7 @@
     </row>
     <row r="96" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A96" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B96" s="6">
         <v>2017</v>
@@ -10301,7 +10296,7 @@
     </row>
     <row r="97" spans="1:31" ht="10.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B97" s="2">
         <v>2018</v>
@@ -10384,7 +10379,7 @@
     </row>
     <row r="98" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A98" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B98" s="2">
         <v>2019</v>
@@ -10467,7 +10462,7 @@
     </row>
     <row r="99" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B99" s="2">
         <v>2020</v>
@@ -10560,7 +10555,7 @@
     </row>
     <row r="100" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A100" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B100" s="1">
         <v>2021</v>
@@ -10656,7 +10651,7 @@
     </row>
     <row r="101" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A101" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B101" s="1">
         <v>2022</v>
@@ -10752,7 +10747,7 @@
     </row>
     <row r="102" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A102" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B102" s="6">
         <v>2017</v>
@@ -10835,7 +10830,7 @@
     </row>
     <row r="103" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A103" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B103" s="1">
         <v>2018</v>
@@ -10918,7 +10913,7 @@
     </row>
     <row r="104" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A104" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B104" s="1">
         <v>2019</v>
@@ -11011,7 +11006,7 @@
     </row>
     <row r="105" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A105" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B105" s="1">
         <v>2020</v>
@@ -11104,7 +11099,7 @@
     </row>
     <row r="106" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A106" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B106" s="1">
         <v>2021</v>
@@ -11200,7 +11195,7 @@
     </row>
     <row r="107" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A107" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B107" s="1">
         <v>2022</v>
@@ -11295,7 +11290,7 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="G17 I17 G2:I15">
+  <conditionalFormatting sqref="G2:I15 G17 I17">
     <cfRule type="expression" dxfId="5" priority="3" stopIfTrue="1">
       <formula>#REF!&gt;=0.4</formula>
     </cfRule>

--- a/סקר חברתי.xlsx
+++ b/סקר חברתי.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Shared drives\Content\02 Communicate\Charts Makeover Social Media\סקר חברתי\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E3CE0F9-4D2D-423E-B82B-6681F85243F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BBF79C8A-66C0-48FD-AD47-12E3E4649118}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{9029A614-1993-4367-849A-2392EF8E4722}"/>
   </bookViews>
@@ -102,6 +102,12 @@
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="53">
+  <si>
+    <t>שם  הרשות</t>
+  </si>
+  <si>
+    <t>שנה</t>
+  </si>
   <si>
     <t>סמל הרשות</t>
   </si>
@@ -256,12 +262,6 @@
   <si>
     <t>הרצלייה</t>
   </si>
-  <si>
-    <t>רשות מקומית</t>
-  </si>
-  <si>
-    <t>שנה2</t>
-  </si>
 </sst>
 </file>
 
@@ -340,7 +340,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -377,6 +377,9 @@
     <xf numFmtId="168" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="165" fontId="2" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1247,8 +1250,8 @@
     <sortCondition descending="1" ref="C2:C107"/>
   </sortState>
   <tableColumns count="31">
-    <tableColumn id="1" xr3:uid="{3C181DDE-18D1-4021-939E-5842AD84999D}" name="רשות מקומית" dataDxfId="36"/>
-    <tableColumn id="2" xr3:uid="{09156158-89A5-49AE-8227-2450E5DF6B8F}" name="שנה2" dataDxfId="35"/>
+    <tableColumn id="1" xr3:uid="{3C181DDE-18D1-4021-939E-5842AD84999D}" name="שם  הרשות" dataDxfId="36"/>
+    <tableColumn id="2" xr3:uid="{09156158-89A5-49AE-8227-2450E5DF6B8F}" name="שנה" dataDxfId="35"/>
     <tableColumn id="3" xr3:uid="{4B7B8A96-A3B1-42EE-B762-080F927428DA}" name="סמל הרשות" dataDxfId="34"/>
     <tableColumn id="4" xr3:uid="{66BE9C11-1AE6-453A-BAB3-D015103D0B5C}" name="בני 20 ומעלה - סך הכל באלפים" dataDxfId="33"/>
     <tableColumn id="5" xr3:uid="{0F94795A-3638-4FE9-BC07-CC632EACBE61}" name="מרוצים מהדירה" dataDxfId="32"/>
@@ -1604,7 +1607,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59308D8F-0010-433A-B46F-F417251B5669}">
   <dimension ref="A1:AE107"/>
   <sheetViews>
-    <sheetView showGridLines="0" rightToLeft="1" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" rightToLeft="1" tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.19921875" defaultRowHeight="11.4" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1616,102 +1621,102 @@
   <sheetData>
     <row r="1" spans="1:31" s="4" customFormat="1" ht="87.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="B1" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="C1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="B1" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="C1" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="D1" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="22" t="s">
+      <c r="E1" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="22" t="s">
+      <c r="F1" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="22" t="s">
+      <c r="G1" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="22" t="s">
+      <c r="H1" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="22" t="s">
+      <c r="I1" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="22" t="s">
+      <c r="J1" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="22" t="s">
+      <c r="K1" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="22" t="s">
+      <c r="L1" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="O1" s="22" t="s">
+      <c r="M1" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="P1" s="22" t="s">
+      <c r="N1" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="Q1" s="22" t="s">
+      <c r="O1" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="R1" s="22" t="s">
+      <c r="P1" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="S1" s="22" t="s">
+      <c r="Q1" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="T1" s="22" t="s">
+      <c r="R1" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="U1" s="22" t="s">
+      <c r="S1" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="V1" s="22" t="s">
+      <c r="T1" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="W1" s="22" t="s">
+      <c r="U1" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="X1" s="22" t="s">
+      <c r="V1" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="Y1" s="22" t="s">
+      <c r="W1" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="Z1" s="22" t="s">
+      <c r="X1" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="AA1" s="22" t="s">
+      <c r="Y1" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="AB1" s="22" t="s">
+      <c r="Z1" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="AC1" s="22" t="s">
+      <c r="AA1" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="AD1" s="22" t="s">
+      <c r="AB1" s="23" t="s">
         <v>27</v>
       </c>
+      <c r="AC1" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" s="23" t="s">
+        <v>29</v>
+      </c>
       <c r="AE1" s="3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B2" s="6">
         <v>2017</v>
@@ -1794,7 +1799,7 @@
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B3" s="2">
         <v>2018</v>
@@ -1877,7 +1882,7 @@
     </row>
     <row r="4" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B4" s="2">
         <v>2019</v>
@@ -1970,7 +1975,7 @@
     </row>
     <row r="5" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B5" s="2">
         <v>2020</v>
@@ -2063,7 +2068,7 @@
     </row>
     <row r="6" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B6" s="1">
         <v>2021</v>
@@ -2159,7 +2164,7 @@
     </row>
     <row r="7" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B7" s="1">
         <v>2022</v>
@@ -2255,7 +2260,7 @@
     </row>
     <row r="8" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B8" s="6">
         <v>2017</v>
@@ -2338,7 +2343,7 @@
     </row>
     <row r="9" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B9" s="2">
         <v>2018</v>
@@ -2421,7 +2426,7 @@
     </row>
     <row r="10" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B10" s="2">
         <v>2019</v>
@@ -2504,7 +2509,7 @@
     </row>
     <row r="11" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B11" s="2">
         <v>2020</v>
@@ -2597,7 +2602,7 @@
     </row>
     <row r="12" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B12" s="2">
         <v>2021</v>
@@ -2693,7 +2698,7 @@
     </row>
     <row r="13" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B13" s="2">
         <v>2022</v>
@@ -2789,7 +2794,7 @@
     </row>
     <row r="14" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B14" s="6">
         <v>2017</v>
@@ -2872,7 +2877,7 @@
     </row>
     <row r="15" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B15" s="2">
         <v>2018</v>
@@ -2955,7 +2960,7 @@
     </row>
     <row r="16" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B16" s="2">
         <v>2019</v>
@@ -3038,7 +3043,7 @@
     </row>
     <row r="17" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B17" s="2">
         <v>2020</v>
@@ -3131,7 +3136,7 @@
     </row>
     <row r="18" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B18" s="1">
         <v>2021</v>
@@ -3227,7 +3232,7 @@
     </row>
     <row r="19" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B19" s="1">
         <v>2022</v>
@@ -3275,7 +3280,7 @@
         <v>87.2</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="R19" s="7">
         <v>-32.700000000000003</v>
@@ -3323,7 +3328,7 @@
     </row>
     <row r="20" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B20" s="6">
         <v>2017</v>
@@ -3406,7 +3411,7 @@
     </row>
     <row r="21" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B21" s="1">
         <v>2018</v>
@@ -3489,7 +3494,7 @@
     </row>
     <row r="22" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B22" s="1">
         <v>2019</v>
@@ -3582,7 +3587,7 @@
     </row>
     <row r="23" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B23" s="1">
         <v>2020</v>
@@ -3675,7 +3680,7 @@
     </row>
     <row r="24" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B24" s="1">
         <v>2021</v>
@@ -3771,7 +3776,7 @@
     </row>
     <row r="25" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B25" s="1">
         <v>2022</v>
@@ -3867,7 +3872,7 @@
     </row>
     <row r="26" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B26" s="6">
         <v>2017</v>
@@ -3950,7 +3955,7 @@
     </row>
     <row r="27" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B27" s="2">
         <v>2018</v>
@@ -4033,7 +4038,7 @@
     </row>
     <row r="28" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B28" s="2">
         <v>2019</v>
@@ -4126,7 +4131,7 @@
     </row>
     <row r="29" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B29" s="2">
         <v>2020</v>
@@ -4219,7 +4224,7 @@
     </row>
     <row r="30" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B30" s="2">
         <v>2021</v>
@@ -4315,7 +4320,7 @@
     </row>
     <row r="31" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B31" s="2">
         <v>2022</v>
@@ -4411,7 +4416,7 @@
     </row>
     <row r="32" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B32" s="6">
         <v>2017</v>
@@ -4494,7 +4499,7 @@
     </row>
     <row r="33" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B33" s="1">
         <v>2018</v>
@@ -4577,7 +4582,7 @@
     </row>
     <row r="34" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B34" s="1">
         <v>2019</v>
@@ -4670,7 +4675,7 @@
     </row>
     <row r="35" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B35" s="1">
         <v>2020</v>
@@ -4763,7 +4768,7 @@
     </row>
     <row r="36" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B36" s="2">
         <v>2021</v>
@@ -4859,7 +4864,7 @@
     </row>
     <row r="37" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B37" s="2">
         <v>2022</v>
@@ -4955,7 +4960,7 @@
     </row>
     <row r="38" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B38" s="6">
         <v>2017</v>
@@ -5038,7 +5043,7 @@
     </row>
     <row r="39" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B39" s="1">
         <v>2018</v>
@@ -5121,7 +5126,7 @@
     </row>
     <row r="40" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B40" s="1">
         <v>2019</v>
@@ -5204,7 +5209,7 @@
     </row>
     <row r="41" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B41" s="1">
         <v>2020</v>
@@ -5297,7 +5302,7 @@
     </row>
     <row r="42" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B42" s="2">
         <v>2021</v>
@@ -5393,7 +5398,7 @@
     </row>
     <row r="43" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B43" s="2">
         <v>2022</v>
@@ -5489,7 +5494,7 @@
     </row>
     <row r="44" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B44" s="6">
         <v>2017</v>
@@ -5572,7 +5577,7 @@
     </row>
     <row r="45" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B45" s="1">
         <v>2018</v>
@@ -5655,7 +5660,7 @@
     </row>
     <row r="46" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B46" s="1">
         <v>2019</v>
@@ -5738,7 +5743,7 @@
     </row>
     <row r="47" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B47" s="1">
         <v>2020</v>
@@ -5768,7 +5773,7 @@
         <v>88.46</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="L47" s="7">
         <v>83.9</v>
@@ -5786,7 +5791,7 @@
         <v>86.4</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="R47" s="7">
         <v>30.1</v>
@@ -5831,7 +5836,7 @@
     </row>
     <row r="48" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B48" s="2">
         <v>2021</v>
@@ -5927,7 +5932,7 @@
     </row>
     <row r="49" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A49" s="5" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B49" s="2">
         <v>2022</v>
@@ -5963,7 +5968,7 @@
         <v>80</v>
       </c>
       <c r="M49" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="N49" s="8">
         <v>73.2</v>
@@ -5975,7 +5980,7 @@
         <v>88.8</v>
       </c>
       <c r="Q49" s="11" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="R49" s="7">
         <v>-29.7</v>
@@ -6023,7 +6028,7 @@
     </row>
     <row r="50" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A50" s="5" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B50" s="6">
         <v>2017</v>
@@ -6106,7 +6111,7 @@
     </row>
     <row r="51" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B51" s="2">
         <v>2018</v>
@@ -6189,7 +6194,7 @@
     </row>
     <row r="52" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A52" s="5" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B52" s="2">
         <v>2019</v>
@@ -6274,7 +6279,7 @@
     </row>
     <row r="53" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A53" s="5" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B53" s="1">
         <v>2020</v>
@@ -6367,7 +6372,7 @@
     </row>
     <row r="54" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A54" s="5" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B54" s="1">
         <v>2021</v>
@@ -6463,7 +6468,7 @@
     </row>
     <row r="55" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A55" s="12" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B55" s="13">
         <v>2022</v>
@@ -6559,7 +6564,7 @@
     </row>
     <row r="56" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A56" s="5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B56" s="2">
         <v>2021</v>
@@ -6655,7 +6660,7 @@
     </row>
     <row r="57" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A57" s="5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B57" s="2">
         <v>2022</v>
@@ -6751,7 +6756,7 @@
     </row>
     <row r="58" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A58" s="5" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B58" s="1">
         <v>2021</v>
@@ -6847,7 +6852,7 @@
     </row>
     <row r="59" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A59" s="5" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B59" s="1">
         <v>2022</v>
@@ -6943,7 +6948,7 @@
     </row>
     <row r="60" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A60" s="5" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B60" s="6">
         <v>2017</v>
@@ -7026,7 +7031,7 @@
     </row>
     <row r="61" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A61" s="5" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B61" s="1">
         <v>2018</v>
@@ -7109,7 +7114,7 @@
     </row>
     <row r="62" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A62" s="5" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B62" s="1">
         <v>2019</v>
@@ -7192,7 +7197,7 @@
     </row>
     <row r="63" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A63" s="5" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B63" s="1">
         <v>2020</v>
@@ -7285,7 +7290,7 @@
     </row>
     <row r="64" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A64" s="5" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B64" s="1">
         <v>2021</v>
@@ -7381,7 +7386,7 @@
     </row>
     <row r="65" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A65" s="5" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B65" s="1">
         <v>2022</v>
@@ -7477,7 +7482,7 @@
     </row>
     <row r="66" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A66" s="5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B66" s="6">
         <v>2017</v>
@@ -7560,7 +7565,7 @@
     </row>
     <row r="67" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A67" s="5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B67" s="1">
         <v>2018</v>
@@ -7643,7 +7648,7 @@
     </row>
     <row r="68" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A68" s="5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B68" s="1">
         <v>2019</v>
@@ -7726,7 +7731,7 @@
     </row>
     <row r="69" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A69" s="5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B69" s="2">
         <v>2020</v>
@@ -7819,7 +7824,7 @@
     </row>
     <row r="70" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A70" s="5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B70" s="2">
         <v>2021</v>
@@ -7891,7 +7896,7 @@
         <v>33.4</v>
       </c>
       <c r="Y70" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="Z70" s="11">
         <v>67.599999999999994</v>
@@ -7915,7 +7920,7 @@
     </row>
     <row r="71" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A71" s="5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B71" s="2">
         <v>2022</v>
@@ -8011,7 +8016,7 @@
     </row>
     <row r="72" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A72" s="5" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B72" s="6">
         <v>2017</v>
@@ -8094,7 +8099,7 @@
     </row>
     <row r="73" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A73" s="5" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B73" s="1">
         <v>2018</v>
@@ -8177,7 +8182,7 @@
     </row>
     <row r="74" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A74" s="5" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B74" s="1">
         <v>2019</v>
@@ -8270,7 +8275,7 @@
     </row>
     <row r="75" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A75" s="5" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B75" s="1">
         <v>2020</v>
@@ -8363,7 +8368,7 @@
     </row>
     <row r="76" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A76" s="5" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B76" s="1">
         <v>2021</v>
@@ -8459,7 +8464,7 @@
     </row>
     <row r="77" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A77" s="5" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B77" s="1">
         <v>2022</v>
@@ -8555,7 +8560,7 @@
     </row>
     <row r="78" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A78" s="5" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B78" s="6">
         <v>2017</v>
@@ -8638,7 +8643,7 @@
     </row>
     <row r="79" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A79" s="5" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B79" s="2">
         <v>2018</v>
@@ -8721,7 +8726,7 @@
     </row>
     <row r="80" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A80" s="5" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B80" s="2">
         <v>2019</v>
@@ -8814,7 +8819,7 @@
     </row>
     <row r="81" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A81" s="5" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B81" s="2">
         <v>2020</v>
@@ -8907,7 +8912,7 @@
     </row>
     <row r="82" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A82" s="5" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B82" s="2">
         <v>2021</v>
@@ -9003,7 +9008,7 @@
     </row>
     <row r="83" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A83" s="5" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B83" s="2">
         <v>2022</v>
@@ -9099,7 +9104,7 @@
     </row>
     <row r="84" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B84" s="6">
         <v>2017</v>
@@ -9182,7 +9187,7 @@
     </row>
     <row r="85" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B85" s="2">
         <v>2018</v>
@@ -9265,7 +9270,7 @@
     </row>
     <row r="86" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A86" s="5" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B86" s="2">
         <v>2019</v>
@@ -9358,7 +9363,7 @@
     </row>
     <row r="87" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A87" s="5" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B87" s="2">
         <v>2020</v>
@@ -9451,7 +9456,7 @@
     </row>
     <row r="88" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A88" s="5" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B88" s="1">
         <v>2020</v>
@@ -9544,7 +9549,7 @@
     </row>
     <row r="89" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A89" s="5" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B89" s="2">
         <v>2020</v>
@@ -9637,7 +9642,7 @@
     </row>
     <row r="90" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A90" s="5" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B90" s="2">
         <v>2021</v>
@@ -9733,7 +9738,7 @@
     </row>
     <row r="91" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A91" s="5" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B91" s="1">
         <v>2021</v>
@@ -9829,7 +9834,7 @@
     </row>
     <row r="92" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A92" s="5" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B92" s="2">
         <v>2021</v>
@@ -9925,7 +9930,7 @@
     </row>
     <row r="93" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A93" s="5" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B93" s="1">
         <v>2022</v>
@@ -10021,7 +10026,7 @@
     </row>
     <row r="94" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A94" s="5" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B94" s="2">
         <v>2022</v>
@@ -10117,7 +10122,7 @@
     </row>
     <row r="95" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A95" s="5" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B95" s="2">
         <v>2022</v>
@@ -10213,7 +10218,7 @@
     </row>
     <row r="96" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A96" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B96" s="6">
         <v>2017</v>
@@ -10296,7 +10301,7 @@
     </row>
     <row r="97" spans="1:31" ht="10.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B97" s="2">
         <v>2018</v>
@@ -10379,7 +10384,7 @@
     </row>
     <row r="98" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A98" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B98" s="2">
         <v>2019</v>
@@ -10462,7 +10467,7 @@
     </row>
     <row r="99" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B99" s="2">
         <v>2020</v>
@@ -10555,7 +10560,7 @@
     </row>
     <row r="100" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A100" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B100" s="1">
         <v>2021</v>
@@ -10651,7 +10656,7 @@
     </row>
     <row r="101" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A101" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B101" s="1">
         <v>2022</v>
@@ -10747,7 +10752,7 @@
     </row>
     <row r="102" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A102" s="5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B102" s="6">
         <v>2017</v>
@@ -10830,7 +10835,7 @@
     </row>
     <row r="103" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A103" s="5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B103" s="1">
         <v>2018</v>
@@ -10913,7 +10918,7 @@
     </row>
     <row r="104" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A104" s="5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B104" s="1">
         <v>2019</v>
@@ -11006,7 +11011,7 @@
     </row>
     <row r="105" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A105" s="5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B105" s="1">
         <v>2020</v>
@@ -11099,7 +11104,7 @@
     </row>
     <row r="106" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A106" s="5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B106" s="1">
         <v>2021</v>
@@ -11195,7 +11200,7 @@
     </row>
     <row r="107" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A107" s="5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B107" s="1">
         <v>2022</v>
@@ -11290,7 +11295,7 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="G2:I15 G17 I17">
+  <conditionalFormatting sqref="G17 I17 G2:I15">
     <cfRule type="expression" dxfId="5" priority="3" stopIfTrue="1">
       <formula>#REF!&gt;=0.4</formula>
     </cfRule>
